--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.99067074699387</v>
+        <v>8.651253000000001</v>
       </c>
       <c r="H2">
-        <v>6.99067074699387</v>
+        <v>25.953759</v>
       </c>
       <c r="I2">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="J2">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.0577735432899</v>
+        <v>44.547044</v>
       </c>
       <c r="N2">
-        <v>44.0577735432899</v>
+        <v>133.641132</v>
       </c>
       <c r="O2">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="P2">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="Q2">
-        <v>307.9933886867572</v>
+        <v>385.387748046132</v>
       </c>
       <c r="R2">
-        <v>307.9933886867572</v>
+        <v>3468.489732415188</v>
       </c>
       <c r="S2">
-        <v>0.2103562957944685</v>
+        <v>0.2188351955918627</v>
       </c>
       <c r="T2">
-        <v>0.2103562957944685</v>
+        <v>0.2188351955918627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.99067074699387</v>
+        <v>8.651253000000001</v>
       </c>
       <c r="H3">
-        <v>6.99067074699387</v>
+        <v>25.953759</v>
       </c>
       <c r="I3">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="J3">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.1851757487208</v>
+        <v>40.23702866666667</v>
       </c>
       <c r="N3">
-        <v>40.1851757487208</v>
+        <v>120.711086</v>
       </c>
       <c r="O3">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="P3">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="Q3">
-        <v>280.92133256939</v>
+        <v>348.100714963586</v>
       </c>
       <c r="R3">
-        <v>280.92133256939</v>
+        <v>3132.906434672274</v>
       </c>
       <c r="S3">
-        <v>0.1918663617453284</v>
+        <v>0.1976624540632906</v>
       </c>
       <c r="T3">
-        <v>0.1918663617453284</v>
+        <v>0.1976624540632907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.99067074699387</v>
+        <v>8.651253000000001</v>
       </c>
       <c r="H4">
-        <v>6.99067074699387</v>
+        <v>25.953759</v>
       </c>
       <c r="I4">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="J4">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.0832614624494</v>
+        <v>20.15970133333333</v>
       </c>
       <c r="N4">
-        <v>20.0832614624494</v>
+        <v>60.47910400000001</v>
       </c>
       <c r="O4">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="P4">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="Q4">
-        <v>140.3954684097743</v>
+        <v>174.406676639104</v>
       </c>
       <c r="R4">
-        <v>140.3954684097743</v>
+        <v>1569.660089751936</v>
       </c>
       <c r="S4">
-        <v>0.09588865139909185</v>
+        <v>0.09903355617386275</v>
       </c>
       <c r="T4">
-        <v>0.09588865139909185</v>
+        <v>0.09903355617386277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.99067074699387</v>
+        <v>8.651253000000001</v>
       </c>
       <c r="H5">
-        <v>6.99067074699387</v>
+        <v>25.953759</v>
       </c>
       <c r="I5">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="J5">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.3546314108948</v>
+        <v>23.39142333333333</v>
       </c>
       <c r="N5">
-        <v>23.3546314108948</v>
+        <v>70.17426999999999</v>
       </c>
       <c r="O5">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="P5">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="Q5">
-        <v>163.2645386109665</v>
+        <v>202.36512128677</v>
       </c>
       <c r="R5">
-        <v>163.2645386109665</v>
+        <v>1821.28609158093</v>
       </c>
       <c r="S5">
-        <v>0.111507989581312</v>
+        <v>0.1149092339397887</v>
       </c>
       <c r="T5">
-        <v>0.111507989581312</v>
+        <v>0.1149092339397887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.99067074699387</v>
+        <v>8.651253000000001</v>
       </c>
       <c r="H6">
-        <v>6.99067074699387</v>
+        <v>25.953759</v>
       </c>
       <c r="I6">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="J6">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4065064186731</v>
+        <v>16.05764533333333</v>
       </c>
       <c r="N6">
-        <v>14.4065064186731</v>
+        <v>48.172936</v>
       </c>
       <c r="O6">
-        <v>0.1013919012652512</v>
+        <v>0.1112080421493099</v>
       </c>
       <c r="P6">
-        <v>0.1013919012652512</v>
+        <v>0.1112080421493099</v>
       </c>
       <c r="Q6">
-        <v>100.7111429873975</v>
+        <v>138.918752362936</v>
       </c>
       <c r="R6">
-        <v>100.7111429873975</v>
+        <v>1250.268771266424</v>
       </c>
       <c r="S6">
-        <v>0.06878466799039736</v>
+        <v>0.07888240479581006</v>
       </c>
       <c r="T6">
-        <v>0.06878466799039736</v>
+        <v>0.07888240479581006</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.72772175741734</v>
+        <v>1.744136</v>
       </c>
       <c r="H7">
-        <v>1.72772175741734</v>
+        <v>5.232408</v>
       </c>
       <c r="I7">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="J7">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.0577735432899</v>
+        <v>44.547044</v>
       </c>
       <c r="N7">
-        <v>44.0577735432899</v>
+        <v>133.641132</v>
       </c>
       <c r="O7">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="P7">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="Q7">
-        <v>76.119573934108</v>
+        <v>77.69610313398401</v>
       </c>
       <c r="R7">
-        <v>76.119573934108</v>
+        <v>699.264928205856</v>
       </c>
       <c r="S7">
-        <v>0.05198888092535417</v>
+        <v>0.04411827312168642</v>
       </c>
       <c r="T7">
-        <v>0.05198888092535417</v>
+        <v>0.04411827312168642</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.72772175741734</v>
+        <v>1.744136</v>
       </c>
       <c r="H8">
-        <v>1.72772175741734</v>
+        <v>5.232408</v>
       </c>
       <c r="I8">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="J8">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.1851757487208</v>
+        <v>40.23702866666667</v>
       </c>
       <c r="N8">
-        <v>40.1851757487208</v>
+        <v>120.711086</v>
       </c>
       <c r="O8">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="P8">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="Q8">
-        <v>69.42880246670458</v>
+        <v>70.17885023056535</v>
       </c>
       <c r="R8">
-        <v>69.42880246670458</v>
+        <v>631.6096520750881</v>
       </c>
       <c r="S8">
-        <v>0.047419153283175</v>
+        <v>0.03984974222579452</v>
       </c>
       <c r="T8">
-        <v>0.047419153283175</v>
+        <v>0.03984974222579452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.72772175741734</v>
+        <v>1.744136</v>
       </c>
       <c r="H9">
-        <v>1.72772175741734</v>
+        <v>5.232408</v>
       </c>
       <c r="I9">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="J9">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.0832614624494</v>
+        <v>20.15970133333333</v>
       </c>
       <c r="N9">
-        <v>20.0832614624494</v>
+        <v>60.47910400000001</v>
       </c>
       <c r="O9">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="P9">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="Q9">
-        <v>34.69828778857502</v>
+        <v>35.16126084471467</v>
       </c>
       <c r="R9">
-        <v>34.69828778857502</v>
+        <v>316.4513476024321</v>
       </c>
       <c r="S9">
-        <v>0.02369857132562832</v>
+        <v>0.01996566168286331</v>
       </c>
       <c r="T9">
-        <v>0.02369857132562832</v>
+        <v>0.01996566168286331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.72772175741734</v>
+        <v>1.744136</v>
       </c>
       <c r="H10">
-        <v>1.72772175741734</v>
+        <v>5.232408</v>
       </c>
       <c r="I10">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="J10">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.3546314108948</v>
+        <v>23.39142333333333</v>
       </c>
       <c r="N10">
-        <v>23.3546314108948</v>
+        <v>70.17426999999999</v>
       </c>
       <c r="O10">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="P10">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="Q10">
-        <v>40.35030482506538</v>
+        <v>40.79782352690667</v>
       </c>
       <c r="R10">
-        <v>40.35030482506538</v>
+        <v>367.18041174216</v>
       </c>
       <c r="S10">
-        <v>0.02755884044579617</v>
+        <v>0.02316627795381863</v>
       </c>
       <c r="T10">
-        <v>0.02755884044579617</v>
+        <v>0.02316627795381863</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.72772175741734</v>
+        <v>1.744136</v>
       </c>
       <c r="H11">
-        <v>1.72772175741734</v>
+        <v>5.232408</v>
       </c>
       <c r="I11">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="J11">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.4065064186731</v>
+        <v>16.05764533333333</v>
       </c>
       <c r="N11">
-        <v>14.4065064186731</v>
+        <v>48.172936</v>
       </c>
       <c r="O11">
-        <v>0.1013919012652512</v>
+        <v>0.1112080421493099</v>
       </c>
       <c r="P11">
-        <v>0.1013919012652512</v>
+        <v>0.1112080421493099</v>
       </c>
       <c r="Q11">
-        <v>24.89043458791408</v>
+        <v>28.00671730109867</v>
       </c>
       <c r="R11">
-        <v>24.89043458791408</v>
+        <v>252.060455709888</v>
       </c>
       <c r="S11">
-        <v>0.01699990913101457</v>
+        <v>0.01590308848567311</v>
       </c>
       <c r="T11">
-        <v>0.01699990913101457</v>
+        <v>0.01590308848567311</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.5861916255294</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H12">
-        <v>1.5861916255294</v>
+        <v>0.012917</v>
       </c>
       <c r="I12">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="J12">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.0577735432899</v>
+        <v>44.547044</v>
       </c>
       <c r="N12">
-        <v>44.0577735432899</v>
+        <v>133.641132</v>
       </c>
       <c r="O12">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="P12">
-        <v>0.3100752739941156</v>
+        <v>0.3085128263790582</v>
       </c>
       <c r="Q12">
-        <v>69.88407143383719</v>
+        <v>0.1918047224493333</v>
       </c>
       <c r="R12">
-        <v>69.88407143383719</v>
+        <v>1.726242502044</v>
       </c>
       <c r="S12">
-        <v>0.04773009727429291</v>
+        <v>0.0001089127097720253</v>
       </c>
       <c r="T12">
-        <v>0.04773009727429291</v>
+        <v>0.0001089127097720253</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.5861916255294</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H13">
-        <v>1.5861916255294</v>
+        <v>0.012917</v>
       </c>
       <c r="I13">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="J13">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>40.1851757487208</v>
+        <v>40.23702866666667</v>
       </c>
       <c r="N13">
-        <v>40.1851757487208</v>
+        <v>120.711086</v>
       </c>
       <c r="O13">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="P13">
-        <v>0.2828202239621354</v>
+        <v>0.2786635952555802</v>
       </c>
       <c r="Q13">
-        <v>63.74138924304807</v>
+        <v>0.1732472330957778</v>
       </c>
       <c r="R13">
-        <v>63.74138924304807</v>
+        <v>1.559225097862</v>
       </c>
       <c r="S13">
-        <v>0.04353470893363205</v>
+        <v>9.837518793079357E-05</v>
       </c>
       <c r="T13">
-        <v>0.04353470893363205</v>
+        <v>9.837518793079359E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.5861916255294</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H14">
-        <v>1.5861916255294</v>
+        <v>0.012917</v>
       </c>
       <c r="I14">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="J14">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.0832614624494</v>
+        <v>20.15970133333333</v>
       </c>
       <c r="N14">
-        <v>20.0832614624494</v>
+        <v>60.47910400000001</v>
       </c>
       <c r="O14">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="P14">
-        <v>0.1413444734002655</v>
+        <v>0.13961704029799</v>
       </c>
       <c r="Q14">
-        <v>31.85590114505457</v>
+        <v>0.0868009540408889</v>
       </c>
       <c r="R14">
-        <v>31.85590114505457</v>
+        <v>0.7812085863680001</v>
       </c>
       <c r="S14">
-        <v>0.02175725067554535</v>
+        <v>4.928829173060384E-05</v>
       </c>
       <c r="T14">
-        <v>0.02175725067554535</v>
+        <v>4.928829173060385E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.5861916255294</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H15">
-        <v>1.5861916255294</v>
+        <v>0.012917</v>
       </c>
       <c r="I15">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="J15">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.3546314108948</v>
+        <v>23.39142333333333</v>
       </c>
       <c r="N15">
-        <v>23.3546314108948</v>
+        <v>70.17426999999999</v>
       </c>
       <c r="O15">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="P15">
-        <v>0.1643681273782322</v>
+        <v>0.1619984959180618</v>
       </c>
       <c r="Q15">
-        <v>37.04492076128721</v>
+        <v>0.1007156717322222</v>
       </c>
       <c r="R15">
-        <v>37.04492076128721</v>
+        <v>0.9064410455899999</v>
       </c>
       <c r="S15">
-        <v>0.02530129735112409</v>
+        <v>5.718950286932428E-05</v>
       </c>
       <c r="T15">
-        <v>0.02530129735112409</v>
+        <v>5.718950286932428E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.004305666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.012917</v>
+      </c>
+      <c r="I16">
+        <v>0.0003530249002944479</v>
+      </c>
+      <c r="J16">
+        <v>0.0003530249002944479</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.05764533333333</v>
+      </c>
+      <c r="N16">
+        <v>48.172936</v>
+      </c>
+      <c r="O16">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="P16">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="Q16">
+        <v>0.06913886825688889</v>
+      </c>
+      <c r="R16">
+        <v>0.622249814312</v>
+      </c>
+      <c r="S16">
+        <v>3.925920799170087E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.925920799170087E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.796801</v>
+      </c>
+      <c r="H17">
+        <v>5.390403</v>
+      </c>
+      <c r="I17">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="J17">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>44.547044</v>
+      </c>
+      <c r="N17">
+        <v>133.641132</v>
+      </c>
+      <c r="O17">
+        <v>0.3085128263790582</v>
+      </c>
+      <c r="P17">
+        <v>0.3085128263790582</v>
+      </c>
+      <c r="Q17">
+        <v>80.042173206244</v>
+      </c>
+      <c r="R17">
+        <v>720.379558856196</v>
+      </c>
+      <c r="S17">
+        <v>0.04545044495573699</v>
+      </c>
+      <c r="T17">
+        <v>0.04545044495573699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.796801</v>
+      </c>
+      <c r="H18">
+        <v>5.390403</v>
+      </c>
+      <c r="I18">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="J18">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>40.23702866666667</v>
+      </c>
+      <c r="N18">
+        <v>120.711086</v>
+      </c>
+      <c r="O18">
+        <v>0.2786635952555802</v>
+      </c>
+      <c r="P18">
+        <v>0.2786635952555802</v>
+      </c>
+      <c r="Q18">
+        <v>72.29793334529533</v>
+      </c>
+      <c r="R18">
+        <v>650.6814001076581</v>
+      </c>
+      <c r="S18">
+        <v>0.04105302377856418</v>
+      </c>
+      <c r="T18">
+        <v>0.04105302377856419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.796801</v>
+      </c>
+      <c r="H19">
+        <v>5.390403</v>
+      </c>
+      <c r="I19">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="J19">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>20.15970133333333</v>
+      </c>
+      <c r="N19">
+        <v>60.47910400000001</v>
+      </c>
+      <c r="O19">
+        <v>0.13961704029799</v>
+      </c>
+      <c r="P19">
+        <v>0.13961704029799</v>
+      </c>
+      <c r="Q19">
+        <v>36.22297151543467</v>
+      </c>
+      <c r="R19">
+        <v>326.006743638912</v>
+      </c>
+      <c r="S19">
+        <v>0.02056853414953334</v>
+      </c>
+      <c r="T19">
+        <v>0.02056853414953334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.5861916255294</v>
-      </c>
-      <c r="H16">
-        <v>1.5861916255294</v>
-      </c>
-      <c r="I16">
-        <v>0.1539306783784337</v>
-      </c>
-      <c r="J16">
-        <v>0.1539306783784337</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>14.4065064186731</v>
-      </c>
-      <c r="N16">
-        <v>14.4065064186731</v>
-      </c>
-      <c r="O16">
-        <v>0.1013919012652512</v>
-      </c>
-      <c r="P16">
-        <v>0.1013919012652512</v>
-      </c>
-      <c r="Q16">
-        <v>22.85147983443482</v>
-      </c>
-      <c r="R16">
-        <v>22.85147983443482</v>
-      </c>
-      <c r="S16">
-        <v>0.01560732414383929</v>
-      </c>
-      <c r="T16">
-        <v>0.01560732414383929</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.796801</v>
+      </c>
+      <c r="H20">
+        <v>5.390403</v>
+      </c>
+      <c r="I20">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="J20">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.39142333333333</v>
+      </c>
+      <c r="N20">
+        <v>70.17426999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.1619984959180618</v>
+      </c>
+      <c r="P20">
+        <v>0.1619984959180618</v>
+      </c>
+      <c r="Q20">
+        <v>42.02973283675666</v>
+      </c>
+      <c r="R20">
+        <v>378.26759553081</v>
+      </c>
+      <c r="S20">
+        <v>0.02386579452158506</v>
+      </c>
+      <c r="T20">
+        <v>0.02386579452158506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.796801</v>
+      </c>
+      <c r="H21">
+        <v>5.390403</v>
+      </c>
+      <c r="I21">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="J21">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16.05764533333333</v>
+      </c>
+      <c r="N21">
+        <v>48.172936</v>
+      </c>
+      <c r="O21">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="P21">
+        <v>0.1112080421493099</v>
+      </c>
+      <c r="Q21">
+        <v>28.85239319257867</v>
+      </c>
+      <c r="R21">
+        <v>259.671538733208</v>
+      </c>
+      <c r="S21">
+        <v>0.01638328965983497</v>
+      </c>
+      <c r="T21">
+        <v>0.01638328965983497</v>
       </c>
     </row>
   </sheetData>
